--- a/data/2016/RP2 - ERT_ATFM_2016.xlsx
+++ b/data/2016/RP2 - ERT_ATFM_2016.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Data source</t>
   </si>
@@ -40,9 +40,24 @@
     <t>Contact</t>
   </si>
   <si>
+    <t>NSA-PRU-Support@eurocontrol.int</t>
+  </si>
+  <si>
+    <t>Period: JAN-JUN</t>
+  </si>
+  <si>
+    <t>Full Year</t>
+  </si>
+  <si>
+    <t>FAB_FIR</t>
+  </si>
+  <si>
     <t>SES RP2 Area</t>
   </si>
   <si>
+    <t>FAB (based on FIR)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -58,6 +73,27 @@
     <t>FLTS</t>
   </si>
   <si>
+    <t>Period: JAN-DEC</t>
+  </si>
+  <si>
+    <t>Plan [2016]</t>
+  </si>
+  <si>
+    <t>FLTS [TOT]</t>
+  </si>
+  <si>
+    <t>En-route ATFM delay [min.]</t>
+  </si>
+  <si>
+    <t>Actual (Jan-Jun)</t>
+  </si>
+  <si>
+    <t>[act. vs. plan]</t>
+  </si>
+  <si>
+    <t>SES Area (RP2)</t>
+  </si>
+  <si>
     <t>En-route ATFM delay [total min.]</t>
   </si>
   <si>
@@ -67,73 +103,70 @@
     <t>Select</t>
   </si>
   <si>
+    <t>Plan [annual]</t>
+  </si>
+  <si>
+    <t>[actual vs. plan]</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>Jan-15</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
-  </si>
-  <si>
-    <t>Period: JAN-MAR</t>
-  </si>
-  <si>
-    <t>Full Year</t>
-  </si>
-  <si>
-    <t>FAB_FIR</t>
-  </si>
-  <si>
-    <t>FAB (based on FIR)</t>
-  </si>
-  <si>
-    <t>Plan [2016]</t>
-  </si>
-  <si>
-    <t>FLTS [TOT]</t>
-  </si>
-  <si>
-    <t>En-route ATFM delay [min.]</t>
-  </si>
-  <si>
-    <t>Actual (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>[act. vs. plan]</t>
-  </si>
-  <si>
-    <t>SES Area (RP2)</t>
-  </si>
-  <si>
-    <t>Period: JAN-DEC</t>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Baltic FAB</t>
+  </si>
+  <si>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
+    <t>DANUBE FAB</t>
+  </si>
+  <si>
+    <t>DK-SE FAB</t>
+  </si>
+  <si>
+    <t>FAB CE (SES RP2)</t>
+  </si>
+  <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
+    <t>Change date</t>
   </si>
   <si>
     <t>Feb-15</t>
   </si>
   <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>DANUBE FAB</t>
-  </si>
-  <si>
-    <t>DK-SE FAB</t>
-  </si>
-  <si>
-    <t>FAB CE (SES RP2)</t>
-  </si>
-  <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>Mar-15</t>
@@ -142,18 +175,6 @@
     <t>Apr-15</t>
   </si>
   <si>
-    <t>Plan [annual]</t>
-  </si>
-  <si>
-    <t>[actual vs. plan]</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
     <t>May-15</t>
   </si>
   <si>
@@ -163,13 +184,7 @@
     <t>Jul-15</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Target has been changed from 0.35 (original Performance Plan) to 0.30 - PRB are still awaiting addendum to revised Performance Plan</t>
   </si>
   <si>
     <t>Aug-15</t>
@@ -184,15 +199,15 @@
     <t>Nov-15</t>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Update 2nd quarter</t>
+  </si>
+  <si>
     <t>Dec-15</t>
   </si>
   <si>
-    <t>Target has been changed from 0.35 (original Performance Plan) to 0.30 - PRB are still awaiting addendum to revised Performance Plan</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Jan-16</t>
   </si>
   <si>
@@ -203,15 +218,6 @@
   </si>
   <si>
     <t>Apr-16</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
   </si>
   <si>
     <t>May-16</t>
@@ -372,6 +378,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF396EA2"/>
@@ -379,7 +391,7 @@
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
@@ -401,14 +413,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -417,26 +429,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF339966"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -498,7 +504,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -511,9 +519,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -547,7 +553,33 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -556,59 +588,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -622,17 +602,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -656,11 +625,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,16 +679,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -690,229 +699,229 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1257,146 +1266,146 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="91">
         <v>42422</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>42369</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="17" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>42</v>
+      <c r="F5" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="45">
+      <c r="A6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="39">
         <f>D6/C6</f>
         <v>0.76082769037511588</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="40">
         <v>9242345</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="41">
         <v>7031832</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="42">
         <v>0.5</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="44">
         <f>B6-E6</f>
         <v>0.26082769037511588</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="60">
+      <c r="A7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="42">
         <v>0.5</v>
       </c>
-      <c r="F7" s="77"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="60">
+      <c r="A8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="42">
         <v>0.5</v>
       </c>
-      <c r="F8" s="77"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="60">
+      <c r="A9" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="42">
         <v>0.5</v>
       </c>
-      <c r="F9" s="77"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="84">
+      <c r="A10" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60">
         <v>0.5</v>
       </c>
-      <c r="F10" s="85" t="s">
-        <v>8</v>
+      <c r="F10" s="61" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1449,997 +1458,1033 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90">
-        <v>42486</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="91">
+        <v>42583</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
-        <v>42460</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="13">
+        <v>42551</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="17" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="89"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="38">
         <v>2015</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="28">
-        <f t="shared" ref="C6:C20" si="0">E6/D6</f>
+      <c r="B6" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="45">
+        <f t="shared" ref="C6:C23" si="0">E6/D6</f>
         <v>0.12040183879635612</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="52">
         <v>640854</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="41">
         <v>77160</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40">
+      <c r="F6" s="58"/>
+      <c r="G6" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
+      <c r="A7" s="64">
         <v>2015</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="39">
         <f t="shared" si="0"/>
         <v>0.14673159780006512</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="66">
         <v>611109</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="67">
         <v>89669</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="40">
+      <c r="F7" s="68"/>
+      <c r="G7" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42">
+      <c r="A8" s="64">
         <v>2015</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="39">
         <f t="shared" si="0"/>
         <v>0.23749428762259642</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="66">
         <v>711175</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="67">
         <v>168900</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="40">
+      <c r="F8" s="68"/>
+      <c r="G8" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+      <c r="A9" s="64">
         <v>2015</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="B9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="39">
         <f t="shared" si="0"/>
         <v>0.97899587319799397</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="67">
         <v>756518</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="67">
         <v>740628</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="52">
-        <v>1</v>
+      <c r="F9" s="68"/>
+      <c r="G9" s="62">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="64">
         <v>2015</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="45">
+      <c r="B10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="39">
         <f t="shared" si="0"/>
         <v>0.66696176690966902</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="67">
         <v>823449</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="67">
         <v>549209</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="52">
-        <v>1</v>
+      <c r="F10" s="68"/>
+      <c r="G10" s="62">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="64">
         <v>2015</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="B11" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="39">
         <f t="shared" si="0"/>
         <v>1.0707737012319023</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="67">
         <v>865166</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="67">
         <v>926397</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52">
-        <v>1</v>
+      <c r="F11" s="68"/>
+      <c r="G11" s="62">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+      <c r="A12" s="64">
         <v>2015</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="45">
+      <c r="B12" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="39">
         <f t="shared" si="0"/>
         <v>1.445123778829468</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="67">
         <v>904153</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="67">
         <v>1306613</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="52">
+      <c r="F12" s="68"/>
+      <c r="G12" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
+      <c r="A13" s="64">
         <v>2015</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="B13" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="39">
         <f t="shared" si="0"/>
         <v>1.442916480257763</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="67">
         <v>896327</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="67">
         <v>1293325</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="52">
+      <c r="F13" s="68"/>
+      <c r="G13" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
+      <c r="A14" s="64">
         <v>2015</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="B14" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="39">
         <f t="shared" si="0"/>
         <v>0.63798971768571888</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="67">
         <v>867898</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="67">
         <v>553710</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="52">
+      <c r="F14" s="68"/>
+      <c r="G14" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="64">
         <v>2015</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="B15" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="39">
         <f t="shared" si="0"/>
         <v>0.51267691805188742</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="67">
         <v>820507</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="67">
         <v>420655</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="52">
+      <c r="F15" s="68"/>
+      <c r="G15" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42">
+      <c r="A16" s="64">
         <v>2015</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="45">
+      <c r="B16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="39">
         <f t="shared" si="0"/>
         <v>0.3535795895664221</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="67">
         <v>681377</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="67">
         <v>240921</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="52">
+      <c r="F16" s="68"/>
+      <c r="G16" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="A17" s="79">
         <v>2015</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="62">
+      <c r="B17" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="82">
         <f t="shared" si="0"/>
         <v>1.0012548733677606</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="83">
         <v>663812</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="83">
         <v>664645</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="67">
+      <c r="F17" s="84"/>
+      <c r="G17" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69">
+      <c r="A18" s="86">
         <v>2016</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="45">
         <f t="shared" si="0"/>
         <v>0.56400370141887723</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="41">
         <v>648400</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="41">
         <v>365700</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="58">
         <f>E18/D18</f>
         <v>0.56400370141887723</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42">
+      <c r="A19" s="64">
         <v>2016</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="45">
+      <c r="B19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="39">
         <f t="shared" si="0"/>
         <v>0.42222821356216828</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="67">
         <v>649085</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="67">
         <v>274062</v>
       </c>
-      <c r="F19" s="49">
-        <f t="shared" ref="F19:F20" si="1">SUM(E$18:E19)/SUM(D$18:D19)</f>
+      <c r="F19" s="68">
+        <f t="shared" ref="F19:F23" si="1">SUM(E$18:E19)/SUM(D$18:D19)</f>
         <v>0.49307853269980001</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42">
+      <c r="A20" s="64">
         <v>2016</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="45">
+      <c r="B20" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="39">
         <f t="shared" si="0"/>
-        <v>1.1211539681970315</v>
-      </c>
-      <c r="D20" s="47">
+        <v>1.1215678537825005</v>
+      </c>
+      <c r="D20" s="67">
         <v>724838</v>
       </c>
-      <c r="E20" s="47">
-        <v>812655</v>
-      </c>
-      <c r="F20" s="49">
+      <c r="E20" s="67">
+        <v>812955</v>
+      </c>
+      <c r="F20" s="68">
         <f t="shared" si="1"/>
-        <v>0.71819239557676984</v>
-      </c>
-      <c r="G20" s="47">
+        <v>0.71834073983236113</v>
+      </c>
+      <c r="G20" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="64">
         <v>2016</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="B21" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="39">
+        <f t="shared" si="0"/>
+        <v>0.54115987578784275</v>
+      </c>
+      <c r="D21" s="67">
+        <v>770617</v>
+      </c>
+      <c r="E21" s="67">
+        <v>417027</v>
+      </c>
+      <c r="F21" s="68">
+        <f t="shared" si="1"/>
+        <v>0.66945369395690557</v>
+      </c>
+      <c r="G21" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42">
+      <c r="A22" s="64">
         <v>2016</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="B22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" si="0"/>
+        <v>0.96212346352656886</v>
+      </c>
+      <c r="D22" s="67">
+        <v>821036</v>
+      </c>
+      <c r="E22" s="67">
+        <v>789938</v>
+      </c>
+      <c r="F22" s="68">
+        <f t="shared" si="1"/>
+        <v>0.73594345950277473</v>
+      </c>
+      <c r="G22" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
+      <c r="A23" s="64">
         <v>2016</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="0"/>
+        <v>2.0055159939937206</v>
+      </c>
+      <c r="D23" s="67">
+        <v>879080</v>
+      </c>
+      <c r="E23" s="67">
+        <v>1763009</v>
+      </c>
+      <c r="F23" s="68">
+        <f t="shared" si="1"/>
+        <v>0.98433916692781043</v>
+      </c>
+      <c r="G23" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42">
+      <c r="A24" s="64">
         <v>2016</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="B24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
+      <c r="A25" s="64">
         <v>2016</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="B25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="64">
         <v>2016</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
+      <c r="A27" s="64">
         <v>2016</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="B27" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42">
+      <c r="A28" s="64">
         <v>2016</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="B28" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
+      <c r="A29" s="79">
         <v>2016</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
+      <c r="B29" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69">
+      <c r="A30" s="86">
         <v>2017</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="B30" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42">
+      <c r="A31" s="64">
         <v>2017</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="B31" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42">
+      <c r="A32" s="64">
         <v>2017</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="B32" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="A33" s="64">
         <v>2017</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="B33" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+      <c r="A34" s="64">
         <v>2017</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="B34" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42">
+      <c r="A35" s="64">
         <v>2017</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="B35" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42">
+      <c r="A36" s="64">
         <v>2017</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="B36" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42">
+      <c r="A37" s="64">
         <v>2017</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="B37" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="42">
+      <c r="A38" s="64">
         <v>2017</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="B38" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42">
+      <c r="A39" s="64">
         <v>2017</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="B39" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="42">
+      <c r="A40" s="64">
         <v>2017</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
+      <c r="B40" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56">
+      <c r="A41" s="79">
         <v>2017</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
+      <c r="B41" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69">
+      <c r="A42" s="86">
         <v>2018</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
+      <c r="B42" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="87"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="42">
+      <c r="A43" s="64">
         <v>2018</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
+      <c r="B43" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42">
+      <c r="A44" s="64">
         <v>2018</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
+      <c r="B44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="42">
+      <c r="A45" s="64">
         <v>2018</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
+      <c r="B45" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="42">
+      <c r="A46" s="64">
         <v>2018</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
+      <c r="B46" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="42">
+      <c r="A47" s="64">
         <v>2018</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
+      <c r="B47" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42">
+      <c r="A48" s="64">
         <v>2018</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
+      <c r="B48" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="64">
         <v>2018</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
+      <c r="B49" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+      <c r="A50" s="64">
         <v>2018</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
+      <c r="B50" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42">
+      <c r="A51" s="64">
         <v>2018</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
+      <c r="B51" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="42">
+      <c r="A52" s="64">
         <v>2018</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
+      <c r="B52" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56">
+      <c r="A53" s="79">
         <v>2018</v>
       </c>
-      <c r="B53" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
+      <c r="B53" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="69">
+      <c r="A54" s="86">
         <v>2019</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
+      <c r="B54" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="87"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
     </row>
     <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="42">
+      <c r="A55" s="64">
         <v>2019</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
+      <c r="B55" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42">
+      <c r="A56" s="64">
         <v>2019</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
+      <c r="B56" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="42">
+      <c r="A57" s="64">
         <v>2019</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
+      <c r="B57" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="42">
+      <c r="A58" s="64">
         <v>2019</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
+      <c r="B58" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="42">
+      <c r="A59" s="64">
         <v>2019</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
+      <c r="B59" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42">
+      <c r="A60" s="64">
         <v>2019</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
+      <c r="B60" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="42">
+      <c r="A61" s="64">
         <v>2019</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
+      <c r="B61" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="42">
+      <c r="A62" s="64">
         <v>2019</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="75"/>
+      <c r="B62" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="42">
+      <c r="A63" s="64">
         <v>2019</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="B63" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="42">
+      <c r="A64" s="64">
         <v>2019</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
+      <c r="B64" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56">
+      <c r="A65" s="79">
         <v>2019</v>
       </c>
-      <c r="B65" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
+      <c r="B65" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2480,301 +2525,297 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
-        <v>42005</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="6">
+        <v>42370</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="str">
+      <c r="F1" s="10" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
         <v>En route ATFM delay</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90">
-        <v>42486</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="91">
+        <v>42583</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
-        <v>42369</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="13">
+        <v>42551</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="F5" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="38">
+        <v>24</v>
+      </c>
+      <c r="B6" s="50">
         <v>0.5</v>
       </c>
-      <c r="C6" s="41">
-        <v>2022323</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1452417</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="C6" s="55">
+        <v>4493056</v>
+      </c>
+      <c r="D6" s="55">
+        <v>4422691</v>
+      </c>
+      <c r="E6" s="57">
         <f t="shared" ref="E6:E15" si="0">D6/C6</f>
-        <v>0.71819239557676984</v>
-      </c>
-      <c r="F6" s="43">
+        <v>0.98433916692781043</v>
+      </c>
+      <c r="F6" s="57">
         <f t="shared" ref="F6:F15" si="1">E6-B6</f>
-        <v>0.21819239557676984</v>
+        <v>0.48433916692781043</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="43">
+        <v>36</v>
+      </c>
+      <c r="B7" s="57">
         <v>0.21</v>
       </c>
-      <c r="C7" s="41">
-        <v>172465</v>
-      </c>
-      <c r="D7" s="41">
-        <v>5233</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="C7" s="55">
+        <v>391259</v>
+      </c>
+      <c r="D7" s="55">
+        <v>31665</v>
+      </c>
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
-        <v>3.0342388310671729E-2</v>
-      </c>
-      <c r="F7" s="43">
+        <v>8.0931045675626631E-2</v>
+      </c>
+      <c r="F7" s="57">
         <f t="shared" si="1"/>
-        <v>-0.17965761168932826</v>
+        <v>-0.12906895432437338</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="43">
+        <v>37</v>
+      </c>
+      <c r="B8" s="57">
         <v>0.36</v>
       </c>
-      <c r="C8" s="41">
-        <v>439881</v>
-      </c>
-      <c r="D8" s="41">
-        <v>25673</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="C8" s="55">
+        <v>1068756</v>
+      </c>
+      <c r="D8" s="55">
+        <v>86850</v>
+      </c>
+      <c r="E8" s="57">
         <f t="shared" si="0"/>
-        <v>5.836351194982279E-2</v>
-      </c>
-      <c r="F8" s="43">
+        <v>8.1262701683078267E-2</v>
+      </c>
+      <c r="F8" s="57">
         <f t="shared" si="1"/>
-        <v>-0.30163648805017718</v>
+        <v>-0.27873729831692173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="43">
+        <v>38</v>
+      </c>
+      <c r="B9" s="57">
         <v>0.03</v>
       </c>
-      <c r="C9" s="41">
-        <v>176614</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43">
+      <c r="C9" s="55">
+        <v>407529</v>
+      </c>
+      <c r="D9" s="55">
+        <v>802</v>
+      </c>
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
+        <v>1.9679581085027078E-3</v>
+      </c>
+      <c r="F9" s="57">
         <f t="shared" si="1"/>
-        <v>-0.03</v>
+        <v>-2.803204189149729E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="43">
+        <v>39</v>
+      </c>
+      <c r="B10" s="57">
         <v>0.1</v>
       </c>
-      <c r="C10" s="41">
-        <v>231933</v>
-      </c>
-      <c r="D10" s="41">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="C10" s="55">
+        <v>499515</v>
+      </c>
+      <c r="D10" s="55">
+        <v>43611</v>
+      </c>
+      <c r="E10" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="43">
+        <v>8.7306687486862253E-2</v>
+      </c>
+      <c r="F10" s="57">
         <f t="shared" si="1"/>
-        <v>-0.1</v>
+        <v>-1.2693312513137753E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="43">
+        <v>40</v>
+      </c>
+      <c r="B11" s="57">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C11" s="41">
-        <v>399929</v>
-      </c>
-      <c r="D11" s="41">
-        <v>49</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="C11" s="55">
+        <v>938047</v>
+      </c>
+      <c r="D11" s="55">
+        <v>33355</v>
+      </c>
+      <c r="E11" s="57">
         <f t="shared" si="0"/>
-        <v>1.225217476102008E-4</v>
-      </c>
-      <c r="F11" s="43">
+        <v>3.5557919805724023E-2</v>
+      </c>
+      <c r="F11" s="57">
         <f t="shared" si="1"/>
-        <v>-0.2898774782523898</v>
+        <v>-0.25444208019427594</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="43">
+        <v>41</v>
+      </c>
+      <c r="B12" s="57">
         <v>0.49</v>
       </c>
-      <c r="C12" s="41">
-        <v>1226832</v>
-      </c>
-      <c r="D12" s="41">
-        <v>1182000</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="C12" s="55">
+        <v>2760962</v>
+      </c>
+      <c r="D12" s="55">
+        <v>3382215</v>
+      </c>
+      <c r="E12" s="57">
         <f t="shared" si="0"/>
-        <v>0.96345709926053447</v>
-      </c>
-      <c r="F12" s="43">
+        <v>1.2250132381394601</v>
+      </c>
+      <c r="F12" s="57">
         <f t="shared" si="1"/>
-        <v>0.47345709926053448</v>
+        <v>0.73501323813946007</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="43">
+        <v>42</v>
+      </c>
+      <c r="B13" s="57">
         <v>0.12</v>
       </c>
-      <c r="C13" s="41">
-        <v>230277</v>
-      </c>
-      <c r="D13" s="41">
-        <v>11907</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="C13" s="55">
+        <v>487916</v>
+      </c>
+      <c r="D13" s="55">
+        <v>50503</v>
+      </c>
+      <c r="E13" s="57">
         <f t="shared" si="0"/>
-        <v>5.1707291653096052E-2</v>
-      </c>
-      <c r="F13" s="43">
+        <v>0.10350757097533182</v>
+      </c>
+      <c r="F13" s="57">
         <f t="shared" si="1"/>
-        <v>-6.8292708346903944E-2</v>
+        <v>-1.6492429024668173E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="43">
+        <v>43</v>
+      </c>
+      <c r="B14" s="57">
         <v>0.3</v>
       </c>
-      <c r="C14" s="41">
-        <v>377478</v>
-      </c>
-      <c r="D14" s="41">
-        <v>136537</v>
-      </c>
-      <c r="E14" s="43">
+      <c r="C14" s="55">
+        <v>884736</v>
+      </c>
+      <c r="D14" s="55">
+        <v>364944</v>
+      </c>
+      <c r="E14" s="57">
         <f t="shared" si="0"/>
-        <v>0.36170849691902573</v>
-      </c>
-      <c r="F14" s="43">
+        <v>0.41248914930555558</v>
+      </c>
+      <c r="F14" s="57">
         <f t="shared" si="1"/>
-        <v>6.1708496919025746E-2</v>
+        <v>0.11248914930555559</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="43">
+      <c r="A15" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="57">
         <v>0.26</v>
       </c>
-      <c r="C15" s="41">
-        <v>525478</v>
-      </c>
-      <c r="D15" s="41">
-        <v>91018</v>
-      </c>
-      <c r="E15" s="43">
+      <c r="C15" s="55">
+        <v>1175144</v>
+      </c>
+      <c r="D15" s="55">
+        <v>428746</v>
+      </c>
+      <c r="E15" s="57">
         <f t="shared" si="0"/>
-        <v>0.17320991554356224</v>
-      </c>
-      <c r="F15" s="43">
+        <v>0.36484549978555819</v>
+      </c>
+      <c r="F15" s="57">
         <f t="shared" si="1"/>
-        <v>-8.6790084456437766E-2</v>
+        <v>0.10484549978555818</v>
       </c>
     </row>
   </sheetData>
@@ -2800,44 +2841,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55">
+      <c r="A2" s="69">
         <v>42478</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="61">
+      <c r="B2" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="71">
         <v>2015</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>56</v>
+      <c r="D2" s="73" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="69">
+        <v>42583</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="71">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="76"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78"/>
@@ -2888,52 +2937,52 @@
       <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2016/RP2 - ERT_ATFM_2016.xlsx
+++ b/data/2016/RP2 - ERT_ATFM_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="13485" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ERT_ATFM_YY" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>Data source</t>
   </si>
@@ -43,7 +43,7 @@
     <t>NSA-PRU-Support@eurocontrol.int</t>
   </si>
   <si>
-    <t>Period: JAN-JUN</t>
+    <t>Period: JAN-SEP</t>
   </si>
   <si>
     <t>Full Year</t>
@@ -52,72 +52,126 @@
     <t>FAB_FIR</t>
   </si>
   <si>
-    <t>SES RP2 Area</t>
-  </si>
-  <si>
     <t>FAB (based on FIR)</t>
   </si>
   <si>
+    <t>Plan [2016]</t>
+  </si>
+  <si>
+    <t>FLTS [TOT]</t>
+  </si>
+  <si>
+    <t>En-route ATFM delay [min.]</t>
+  </si>
+  <si>
+    <t>Actual (Jan-Sep)</t>
+  </si>
+  <si>
+    <t>[act. vs. plan]</t>
+  </si>
+  <si>
+    <t>SES Area (RP2)</t>
+  </si>
+  <si>
+    <t>Period: JAN-DEC</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Baltic FAB</t>
+  </si>
+  <si>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>DANUBE FAB</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
+    <t>DK-SE FAB</t>
+  </si>
+  <si>
     <t>En-route ATFM delay [min./flt.]</t>
   </si>
   <si>
     <t>FLTS</t>
   </si>
   <si>
-    <t>Period: JAN-DEC</t>
-  </si>
-  <si>
-    <t>Plan [2016]</t>
-  </si>
-  <si>
-    <t>FLTS [TOT]</t>
-  </si>
-  <si>
-    <t>En-route ATFM delay [min.]</t>
-  </si>
-  <si>
-    <t>Actual (Jan-Jun)</t>
-  </si>
-  <si>
-    <t>[act. vs. plan]</t>
-  </si>
-  <si>
-    <t>SES Area (RP2)</t>
+    <t>FAB CE (SES RP2)</t>
+  </si>
+  <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>SW FAB</t>
   </si>
   <si>
     <t>En-route ATFM delay [total min.]</t>
   </si>
   <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
+    <t>Plan [annual]</t>
+  </si>
+  <si>
+    <t>[actual vs. plan]</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>Cumulative Year</t>
   </si>
   <si>
     <t>Select</t>
   </si>
   <si>
-    <t>Plan [annual]</t>
-  </si>
-  <si>
-    <t>[actual vs. plan]</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Jan-15</t>
   </si>
   <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
+    <t>Target has been changed from 0.35 (original Performance Plan) to 0.30 - PRB are still awaiting addendum to revised Performance Plan</t>
+  </si>
+  <si>
+    <t>Feb-15</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Update 2nd quarter</t>
+  </si>
+  <si>
+    <t>Apr-Sep</t>
+  </si>
+  <si>
+    <t>ATFM delay changed back to the old computation methodology</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
@@ -127,48 +181,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>DANUBE FAB</t>
-  </si>
-  <si>
-    <t>DK-SE FAB</t>
-  </si>
-  <si>
-    <t>FAB CE (SES RP2)</t>
-  </si>
-  <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Feb-15</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Mar-15</t>
   </si>
   <si>
@@ -184,9 +196,6 @@
     <t>Jul-15</t>
   </si>
   <si>
-    <t>Target has been changed from 0.35 (original Performance Plan) to 0.30 - PRB are still awaiting addendum to revised Performance Plan</t>
-  </si>
-  <si>
     <t>Aug-15</t>
   </si>
   <si>
@@ -197,12 +206,6 @@
   </si>
   <si>
     <t>Nov-15</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Update 2nd quarter</t>
   </si>
   <si>
     <t>Dec-15</t>
@@ -356,11 +359,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,14 +382,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <u/>
+      <sz val="9"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
@@ -396,9 +400,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -413,14 +433,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -429,20 +450,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF339966"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -529,61 +538,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -593,6 +556,45 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -602,6 +604,39 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -626,32 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -666,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,253 +685,247 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1256,156 +1259,156 @@
       <c r="D1" s="4">
         <v>42005</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="str">
+      <c r="F1" s="8" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
         <v>En route ATFM delay</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="89">
         <v>42422</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="26">
         <v>42369</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="str">
+      <c r="F2" s="25" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>13</v>
+      <c r="B4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
+      <c r="A5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="A6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="46">
         <f>D6/C6</f>
         <v>0.76082769037511588</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="51">
         <v>9242345</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="49">
         <v>7031832</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="53">
         <v>0.5</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="54">
         <f>B6-E6</f>
         <v>0.26082769037511588</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="42">
+      <c r="A7" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="53">
         <v>0.5</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="69"/>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="42">
+      <c r="A8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="53">
         <v>0.5</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="42">
+      <c r="A9" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="53">
         <v>0.5</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60">
+      <c r="A10" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="76">
         <v>0.5</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>13</v>
+      <c r="F10" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1421,9 +1424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1445,1046 +1448,1082 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>42005</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="str">
+      <c r="F1" s="8" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
         <v>En route ATFM delay</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="91">
-        <v>42583</v>
+      <c r="B2" s="11">
+        <v>42676</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="13">
-        <v>42551</v>
-      </c>
-      <c r="E2" s="16" t="s">
+        <v>42643</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="str">
+      <c r="F2" s="25" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="90"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="D5" s="40" t="s">
         <v>27</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="44">
         <v>2015</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="45">
-        <f t="shared" ref="C6:C23" si="0">E6/D6</f>
+      <c r="B6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="47">
+        <f t="shared" ref="C6:C26" si="0">E6/D6</f>
         <v>0.12040183879635612</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="48">
         <v>640854</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="49">
         <v>77160</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="62">
+      <c r="F6" s="57"/>
+      <c r="G6" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="A7" s="59">
         <v>2015</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="46">
         <f t="shared" si="0"/>
         <v>0.14673159780006512</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="61">
         <v>611109</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="63">
         <v>89669</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="62">
+      <c r="F7" s="70"/>
+      <c r="G7" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="59">
         <v>2015</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="39">
+      <c r="B8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="46">
         <f t="shared" si="0"/>
         <v>0.23749428762259642</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="61">
         <v>711175</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="63">
         <v>168900</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="62">
+      <c r="F8" s="70"/>
+      <c r="G8" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+      <c r="A9" s="59">
         <v>2015</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="39">
+      <c r="B9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="46">
         <f t="shared" si="0"/>
         <v>0.97899587319799397</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="63">
         <v>756518</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="63">
         <v>740628</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="62">
+      <c r="F9" s="70"/>
+      <c r="G9" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64">
+      <c r="A10" s="59">
         <v>2015</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="39">
+      <c r="B10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="46">
         <f t="shared" si="0"/>
         <v>0.66696176690966902</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="63">
         <v>823449</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="63">
         <v>549209</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="62">
+      <c r="F10" s="70"/>
+      <c r="G10" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64">
+      <c r="A11" s="59">
         <v>2015</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="39">
+      <c r="B11" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="46">
         <f t="shared" si="0"/>
         <v>1.0707737012319023</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="63">
         <v>865166</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="63">
         <v>926397</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="62">
+      <c r="F11" s="70"/>
+      <c r="G11" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
+      <c r="A12" s="59">
         <v>2015</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="39">
+      <c r="B12" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="46">
         <f t="shared" si="0"/>
         <v>1.445123778829468</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="63">
         <v>904153</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="63">
         <v>1306613</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="72">
-        <v>1</v>
+      <c r="F12" s="70"/>
+      <c r="G12" s="58">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64">
+      <c r="A13" s="59">
         <v>2015</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="B13" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="46">
         <f t="shared" si="0"/>
         <v>1.442916480257763</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="63">
         <v>896327</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="63">
         <v>1293325</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="72">
-        <v>1</v>
+      <c r="F13" s="70"/>
+      <c r="G13" s="58">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
+      <c r="A14" s="59">
         <v>2015</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="B14" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="46">
         <f t="shared" si="0"/>
         <v>0.63798971768571888</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="63">
         <v>867898</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="63">
         <v>553710</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="72">
-        <v>1</v>
+      <c r="F14" s="70"/>
+      <c r="G14" s="58">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64">
+      <c r="A15" s="59">
         <v>2015</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="39">
+      <c r="B15" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="46">
         <f t="shared" si="0"/>
         <v>0.51267691805188742</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="63">
         <v>820507</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="63">
         <v>420655</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="72">
+      <c r="F15" s="70"/>
+      <c r="G15" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64">
+      <c r="A16" s="59">
         <v>2015</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="39">
+      <c r="B16" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="46">
         <f t="shared" si="0"/>
         <v>0.3535795895664221</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="63">
         <v>681377</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="63">
         <v>240921</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="72">
+      <c r="F16" s="70"/>
+      <c r="G16" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79">
+      <c r="A17" s="77">
         <v>2015</v>
       </c>
-      <c r="B17" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="82">
+      <c r="B17" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="80">
         <f t="shared" si="0"/>
         <v>1.0012548733677606</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="81">
         <v>663812</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <v>664645</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85">
+      <c r="F17" s="82"/>
+      <c r="G17" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86">
+      <c r="A18" s="84">
         <v>2016</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="B18" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="47">
         <f t="shared" si="0"/>
         <v>0.56400370141887723</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="49">
         <v>648400</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="49">
         <v>365700</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="57">
         <f>E18/D18</f>
         <v>0.56400370141887723</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
+      <c r="A19" s="59">
         <v>2016</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="39">
+      <c r="B19" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="46">
         <f t="shared" si="0"/>
         <v>0.42222821356216828</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="63">
         <v>649085</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="63">
         <v>274062</v>
       </c>
-      <c r="F19" s="68">
-        <f t="shared" ref="F19:F23" si="1">SUM(E$18:E19)/SUM(D$18:D19)</f>
+      <c r="F19" s="70">
+        <f t="shared" ref="F19:F26" si="1">SUM(E$18:E19)/SUM(D$18:D19)</f>
         <v>0.49307853269980001</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64">
+      <c r="A20" s="59">
         <v>2016</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="39">
+      <c r="B20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="46">
         <f t="shared" si="0"/>
         <v>1.1215678537825005</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="63">
         <v>724838</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="63">
         <v>812955</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="70">
         <f t="shared" si="1"/>
         <v>0.71834073983236113</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64">
+      <c r="A21" s="59">
         <v>2016</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="39">
+      <c r="B21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="46">
         <f t="shared" si="0"/>
-        <v>0.54115987578784275</v>
-      </c>
-      <c r="D21" s="67">
+        <v>0.62441653895514893</v>
+      </c>
+      <c r="D21" s="63">
         <v>770617</v>
       </c>
-      <c r="E21" s="67">
-        <v>417027</v>
-      </c>
-      <c r="F21" s="68">
+      <c r="E21" s="63">
+        <v>481186</v>
+      </c>
+      <c r="F21" s="70">
         <f t="shared" si="1"/>
-        <v>0.66945369395690557</v>
-      </c>
-      <c r="G21" s="67">
+        <v>0.69242554440840121</v>
+      </c>
+      <c r="G21" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
+      <c r="A22" s="59">
         <v>2016</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="39">
+      <c r="B22" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="46">
         <f t="shared" si="0"/>
-        <v>0.96212346352656886</v>
-      </c>
-      <c r="D22" s="67">
-        <v>821036</v>
-      </c>
-      <c r="E22" s="67">
-        <v>789938</v>
-      </c>
-      <c r="F22" s="68">
+        <v>1.0561273660820532</v>
+      </c>
+      <c r="D22" s="63">
+        <v>848766</v>
+      </c>
+      <c r="E22" s="63">
+        <v>896405</v>
+      </c>
+      <c r="F22" s="70">
         <f t="shared" si="1"/>
-        <v>0.73594345950277473</v>
-      </c>
-      <c r="G22" s="67">
+        <v>0.77719288706996115</v>
+      </c>
+      <c r="G22" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64">
+      <c r="A23" s="59">
         <v>2016</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="39">
+      <c r="B23" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="46">
         <f t="shared" si="0"/>
-        <v>2.0055159939937206</v>
-      </c>
-      <c r="D23" s="67">
+        <v>2.2382217773126452</v>
+      </c>
+      <c r="D23" s="63">
         <v>879080</v>
       </c>
-      <c r="E23" s="67">
-        <v>1763009</v>
-      </c>
-      <c r="F23" s="68">
+      <c r="E23" s="63">
+        <v>1967576</v>
+      </c>
+      <c r="F23" s="70">
         <f t="shared" si="1"/>
-        <v>0.98433916692781043</v>
-      </c>
-      <c r="G23" s="67">
+        <v>1.0612942085734649</v>
+      </c>
+      <c r="G23" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64">
+      <c r="A24" s="59">
         <v>2016</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="46">
+        <f t="shared" si="0"/>
+        <v>2.1416886489581417</v>
+      </c>
+      <c r="D24" s="63">
+        <v>929157</v>
+      </c>
+      <c r="E24" s="63">
+        <v>1989965</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="1"/>
+        <v>1.24548990695866</v>
+      </c>
+      <c r="G24" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64">
+      <c r="A25" s="59">
         <v>2016</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="46">
+        <f t="shared" si="0"/>
+        <v>1.2111803794115295</v>
+      </c>
+      <c r="D25" s="63">
+        <v>924906</v>
+      </c>
+      <c r="E25" s="63">
+        <v>1120228</v>
+      </c>
+      <c r="F25" s="70">
+        <f t="shared" si="1"/>
+        <v>1.2405120497756104</v>
+      </c>
+      <c r="G25" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64">
+      <c r="A26" s="59">
         <v>2016</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
+      <c r="B26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="46">
+        <f t="shared" si="0"/>
+        <v>0.96476192809402161</v>
+      </c>
+      <c r="D26" s="63">
+        <v>898006</v>
+      </c>
+      <c r="E26" s="63">
+        <v>866362</v>
+      </c>
+      <c r="F26" s="70">
+        <f t="shared" si="1"/>
+        <v>1.2064641739729447</v>
+      </c>
+      <c r="G26" s="63">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64">
+      <c r="A27" s="59">
         <v>2016</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="B27" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64">
+      <c r="A28" s="59">
         <v>2016</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="B28" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79">
+      <c r="A29" s="77">
         <v>2016</v>
       </c>
-      <c r="B29" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="B29" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86">
+      <c r="A30" s="84">
         <v>2017</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
+      <c r="B30" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64">
+      <c r="A31" s="59">
         <v>2017</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="B31" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64">
+      <c r="A32" s="59">
         <v>2017</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64">
+      <c r="A33" s="59">
         <v>2017</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64">
+      <c r="A34" s="59">
         <v>2017</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="B34" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64">
+      <c r="A35" s="59">
         <v>2017</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="B35" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64">
+      <c r="A36" s="59">
         <v>2017</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="B36" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="66"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64">
+      <c r="A37" s="59">
         <v>2017</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="B37" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64">
+      <c r="A38" s="59">
         <v>2017</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="B38" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64">
+      <c r="A39" s="59">
         <v>2017</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="B39" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64">
+      <c r="A40" s="59">
         <v>2017</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="B40" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="79">
+      <c r="A41" s="77">
         <v>2017</v>
       </c>
-      <c r="B41" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="72"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86">
+      <c r="A42" s="84">
         <v>2018</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
+      <c r="B42" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="85"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64">
+      <c r="A43" s="59">
         <v>2018</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="B43" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64">
+      <c r="A44" s="59">
         <v>2018</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="B44" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64">
+      <c r="A45" s="59">
         <v>2018</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="B45" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="66"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64">
+      <c r="A46" s="59">
         <v>2018</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
+      <c r="B46" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64">
+      <c r="A47" s="59">
         <v>2018</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="B47" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64">
+      <c r="A48" s="59">
         <v>2018</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="B48" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64">
+      <c r="A49" s="59">
         <v>2018</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="B49" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="66"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="64">
+      <c r="A50" s="59">
         <v>2018</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="B50" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64">
+      <c r="A51" s="59">
         <v>2018</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="B51" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64">
+      <c r="A52" s="59">
         <v>2018</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="B52" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="79">
+      <c r="A53" s="77">
         <v>2018</v>
       </c>
-      <c r="B53" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="B53" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="86">
+      <c r="A54" s="84">
         <v>2019</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
+      <c r="B54" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
     </row>
     <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64">
+      <c r="A55" s="59">
         <v>2019</v>
       </c>
-      <c r="B55" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
+      <c r="B55" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64">
+      <c r="A56" s="59">
         <v>2019</v>
       </c>
-      <c r="B56" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
+      <c r="B56" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="64">
+      <c r="A57" s="59">
         <v>2019</v>
       </c>
-      <c r="B57" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
+      <c r="B57" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64">
+      <c r="A58" s="59">
         <v>2019</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
+      <c r="B58" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64">
+      <c r="A59" s="59">
         <v>2019</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
+      <c r="B59" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64">
+      <c r="A60" s="59">
         <v>2019</v>
       </c>
-      <c r="B60" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
+      <c r="B60" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="64">
+      <c r="A61" s="59">
         <v>2019</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="B61" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="64">
+      <c r="A62" s="59">
         <v>2019</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
+      <c r="B62" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64">
+      <c r="A63" s="59">
         <v>2019</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
+      <c r="B63" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64">
+      <c r="A64" s="59">
         <v>2019</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
+      <c r="B64" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="79">
+      <c r="A65" s="77">
         <v>2019</v>
       </c>
-      <c r="B65" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
+      <c r="B65" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="72"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2502,9 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2525,29 +2562,29 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>42370</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="str">
+      <c r="F1" s="9" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
         <v>En route ATFM delay</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="91">
-        <v>42583</v>
+      <c r="B2" s="11">
+        <v>42676</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="13">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
@@ -2557,265 +2594,265 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="34">
+        <v>7272855</v>
+      </c>
+      <c r="D6" s="34">
+        <v>8774439</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" ref="E6:E15" si="0">D6/C6</f>
+        <v>1.2064641739729447</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" ref="F6:F15" si="1">E6-B6</f>
+        <v>0.7064641739729447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="B7" s="36">
+        <v>0.21</v>
+      </c>
+      <c r="C7" s="34">
+        <v>645078</v>
+      </c>
+      <c r="D7" s="34">
+        <v>283820</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.43997780113412643</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="1"/>
+        <v>0.22997780113412644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="B8" s="36">
+        <v>0.36</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1860871</v>
+      </c>
+      <c r="D8" s="34">
+        <v>307996</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.16551174154468526</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="1"/>
+        <v>-0.19448825845531473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="55">
-        <v>4493056</v>
-      </c>
-      <c r="D6" s="55">
-        <v>4422691</v>
-      </c>
-      <c r="E6" s="57">
-        <f t="shared" ref="E6:E15" si="0">D6/C6</f>
-        <v>0.98433916692781043</v>
-      </c>
-      <c r="F6" s="57">
-        <f t="shared" ref="F6:F15" si="1">E6-B6</f>
-        <v>0.48433916692781043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="57">
-        <v>0.21</v>
-      </c>
-      <c r="C7" s="55">
-        <v>391259</v>
-      </c>
-      <c r="D7" s="55">
-        <v>31665</v>
-      </c>
-      <c r="E7" s="57">
+      <c r="B9" s="36">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="34">
+        <v>696999</v>
+      </c>
+      <c r="D9" s="34">
+        <v>5120</v>
+      </c>
+      <c r="E9" s="36">
         <f t="shared" si="0"/>
-        <v>8.0931045675626631E-2</v>
-      </c>
-      <c r="F7" s="57">
+        <v>7.3457781144592744E-3</v>
+      </c>
+      <c r="F9" s="36">
         <f t="shared" si="1"/>
-        <v>-0.12906895432437338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="57">
-        <v>0.36</v>
-      </c>
-      <c r="C8" s="55">
-        <v>1068756</v>
-      </c>
-      <c r="D8" s="55">
-        <v>86850</v>
-      </c>
-      <c r="E8" s="57">
+        <v>-2.2654221885540726E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="34">
+        <v>781846</v>
+      </c>
+      <c r="D10" s="34">
+        <v>50835</v>
+      </c>
+      <c r="E10" s="36">
         <f t="shared" si="0"/>
-        <v>8.1262701683078267E-2</v>
-      </c>
-      <c r="F8" s="57">
+        <v>6.5019198154112195E-2</v>
+      </c>
+      <c r="F10" s="36">
         <f t="shared" si="1"/>
-        <v>-0.27873729831692173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="57">
-        <v>0.03</v>
-      </c>
-      <c r="C9" s="55">
-        <v>407529</v>
-      </c>
-      <c r="D9" s="55">
-        <v>802</v>
-      </c>
-      <c r="E9" s="57">
+        <v>-3.498080184588781E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1592508</v>
+      </c>
+      <c r="D11" s="34">
+        <v>182460</v>
+      </c>
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
-        <v>1.9679581085027078E-3</v>
-      </c>
-      <c r="F9" s="57">
+        <v>0.11457399272091569</v>
+      </c>
+      <c r="F11" s="36">
         <f t="shared" si="1"/>
-        <v>-2.803204189149729E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="55">
-        <v>499515</v>
-      </c>
-      <c r="D10" s="55">
-        <v>43611</v>
-      </c>
-      <c r="E10" s="57">
+        <v>-0.17542600727908431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="C12" s="34">
+        <v>4480431</v>
+      </c>
+      <c r="D12" s="34">
+        <v>6229906</v>
+      </c>
+      <c r="E12" s="36">
         <f t="shared" si="0"/>
-        <v>8.7306687486862253E-2</v>
-      </c>
-      <c r="F10" s="57">
+        <v>1.3904702471704173</v>
+      </c>
+      <c r="F12" s="36">
         <f t="shared" si="1"/>
-        <v>-1.2693312513137753E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="57">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C11" s="55">
-        <v>938047</v>
-      </c>
-      <c r="D11" s="55">
-        <v>33355</v>
-      </c>
-      <c r="E11" s="57">
+        <v>0.90047024717041735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="34">
+        <v>759174</v>
+      </c>
+      <c r="D13" s="34">
+        <v>83757</v>
+      </c>
+      <c r="E13" s="36">
         <f t="shared" si="0"/>
-        <v>3.5557919805724023E-2</v>
-      </c>
-      <c r="F11" s="57">
+        <v>0.11032648641813339</v>
+      </c>
+      <c r="F13" s="36">
         <f t="shared" si="1"/>
-        <v>-0.25444208019427594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="57">
-        <v>0.49</v>
-      </c>
-      <c r="C12" s="55">
-        <v>2760962</v>
-      </c>
-      <c r="D12" s="55">
-        <v>3382215</v>
-      </c>
-      <c r="E12" s="57">
+        <v>-9.6735135818666051E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1486128</v>
+      </c>
+      <c r="D14" s="34">
+        <v>862633</v>
+      </c>
+      <c r="E14" s="36">
         <f t="shared" si="0"/>
-        <v>1.2250132381394601</v>
-      </c>
-      <c r="F12" s="57">
+        <v>0.58045673051042712</v>
+      </c>
+      <c r="F14" s="36">
         <f t="shared" si="1"/>
-        <v>0.73501323813946007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="57">
-        <v>0.12</v>
-      </c>
-      <c r="C13" s="55">
-        <v>487916</v>
-      </c>
-      <c r="D13" s="55">
-        <v>50503</v>
-      </c>
-      <c r="E13" s="57">
+        <v>0.28045673051042713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1898308</v>
+      </c>
+      <c r="D15" s="34">
+        <v>767912</v>
+      </c>
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
-        <v>0.10350757097533182</v>
-      </c>
-      <c r="F13" s="57">
+        <v>0.40452445019459432</v>
+      </c>
+      <c r="F15" s="36">
         <f t="shared" si="1"/>
-        <v>-1.6492429024668173E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="C14" s="55">
-        <v>884736</v>
-      </c>
-      <c r="D14" s="55">
-        <v>364944</v>
-      </c>
-      <c r="E14" s="57">
-        <f t="shared" si="0"/>
-        <v>0.41248914930555558</v>
-      </c>
-      <c r="F14" s="57">
-        <f t="shared" si="1"/>
-        <v>0.11248914930555559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="57">
-        <v>0.26</v>
-      </c>
-      <c r="C15" s="55">
-        <v>1175144</v>
-      </c>
-      <c r="D15" s="55">
-        <v>428746</v>
-      </c>
-      <c r="E15" s="57">
-        <f t="shared" si="0"/>
-        <v>0.36484549978555819</v>
-      </c>
-      <c r="F15" s="57">
-        <f t="shared" si="1"/>
-        <v>0.10484549978555818</v>
+        <v>0.14452445019459431</v>
       </c>
     </row>
   </sheetData>
@@ -2841,148 +2878,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52">
+        <v>42478</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="56">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="65" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>42583</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C3" s="56">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="65" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>42675</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>42478</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="71">
-        <v>2015</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
-        <v>42583</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="71">
-        <v>2016</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="D4" s="60" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
